--- a/2022/Symphony/Others/Document/Final/Mugdho Corporation Net Profit Top Sheet.xlsx
+++ b/2022/Symphony/Others/Document/Final/Mugdho Corporation Net Profit Top Sheet.xlsx
@@ -58,46 +58,46 @@
     <t>Lifting Value</t>
   </si>
   <si>
-    <t>July_2020</t>
-  </si>
-  <si>
-    <t>August_2020</t>
-  </si>
-  <si>
-    <t>September_2020</t>
-  </si>
-  <si>
-    <t>October_2020</t>
-  </si>
-  <si>
-    <t>November_2020</t>
-  </si>
-  <si>
-    <t>December_2020</t>
-  </si>
-  <si>
-    <t>January_2021</t>
-  </si>
-  <si>
-    <t>February_2021</t>
-  </si>
-  <si>
-    <t>March_2021</t>
-  </si>
-  <si>
-    <t>April_2021</t>
-  </si>
-  <si>
     <t>Sales Value</t>
   </si>
   <si>
-    <t>May_2021</t>
-  </si>
-  <si>
-    <t>June_2021</t>
-  </si>
-  <si>
-    <t>Net Profit Statement of July'2020-June'2021</t>
+    <t>July_2021</t>
+  </si>
+  <si>
+    <t>August_2021</t>
+  </si>
+  <si>
+    <t>September_2021</t>
+  </si>
+  <si>
+    <t>October_2021</t>
+  </si>
+  <si>
+    <t>November_2021</t>
+  </si>
+  <si>
+    <t>December_2021</t>
+  </si>
+  <si>
+    <t>January_2022</t>
+  </si>
+  <si>
+    <t>February_2022</t>
+  </si>
+  <si>
+    <t>March_2022</t>
+  </si>
+  <si>
+    <t>April_2022</t>
+  </si>
+  <si>
+    <t>May_2022</t>
+  </si>
+  <si>
+    <t>June_2022</t>
+  </si>
+  <si>
+    <t>Net Profit Statement of July'2021-June'2022</t>
   </si>
 </sst>
 </file>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -695,37 +695,37 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4">
-        <v>15512519.555000002</v>
+        <v>7114432</v>
       </c>
       <c r="D6" s="4">
-        <v>16146235</v>
+        <v>12315620</v>
       </c>
       <c r="E6" s="4">
-        <v>402128.76500000001</v>
+        <v>310449.28142857127</v>
       </c>
       <c r="F6" s="4">
-        <v>84909</v>
+        <v>28879</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" ref="G6:G17" si="0">E6+F6</f>
-        <v>487037.76500000001</v>
+        <v>339328.28142857127</v>
       </c>
       <c r="H6" s="3">
-        <v>71450</v>
+        <v>103550</v>
       </c>
       <c r="I6" s="3">
-        <v>56638</v>
+        <v>58174</v>
       </c>
       <c r="J6" s="16">
         <f>H6+I6</f>
-        <v>128088</v>
+        <v>161724</v>
       </c>
       <c r="K6" s="14">
         <f>G6-J6</f>
-        <v>358949.76500000001</v>
+        <v>177604.28142857127</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -733,37 +733,37 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
-        <v>12436401.079999998</v>
+        <v>14819391</v>
       </c>
       <c r="D7" s="4">
-        <v>12689990</v>
+        <v>17715480</v>
       </c>
       <c r="E7" s="4">
-        <v>317775.41500000004</v>
+        <v>444305</v>
       </c>
       <c r="F7" s="4">
-        <v>82890</v>
+        <v>73586</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="0"/>
-        <v>400665.41500000004</v>
+        <v>517891</v>
       </c>
       <c r="H7" s="3">
-        <v>48700</v>
+        <v>75300</v>
       </c>
       <c r="I7" s="3">
-        <v>44168</v>
+        <v>68912</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" ref="J7:J17" si="1">H7+I7</f>
-        <v>92868</v>
+        <v>144212</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" ref="K7:K17" si="2">G7-J7</f>
-        <v>307797.41500000004</v>
+        <v>373679</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -771,37 +771,37 @@
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
-        <v>19800275.029999997</v>
+        <v>17213552</v>
       </c>
       <c r="D8" s="4">
-        <v>19128525</v>
+        <v>17237245</v>
       </c>
       <c r="E8" s="4">
-        <v>477675.54500000004</v>
+        <v>434652</v>
       </c>
       <c r="F8" s="4">
-        <v>220317</v>
+        <v>176981</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>697992.54500000004</v>
+        <v>611633</v>
       </c>
       <c r="H8" s="3">
-        <v>80700</v>
+        <v>75300</v>
       </c>
       <c r="I8" s="3">
-        <v>84492</v>
+        <v>75539</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="1"/>
-        <v>165192</v>
+        <v>150839</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="2"/>
-        <v>532800.54500000004</v>
+        <v>460794</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -809,37 +809,37 @@
         <v>4</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
-        <v>17706989.390000001</v>
+        <v>16732052</v>
       </c>
       <c r="D9" s="4">
-        <v>15831770</v>
+        <v>14915220</v>
       </c>
       <c r="E9" s="4">
-        <v>386224.44</v>
+        <v>381272</v>
       </c>
       <c r="F9" s="4">
-        <v>94507</v>
+        <v>85130</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>480731.44</v>
+        <v>466402</v>
       </c>
       <c r="H9" s="3">
-        <v>80700</v>
+        <v>75300</v>
       </c>
       <c r="I9" s="3">
-        <v>72103</v>
+        <v>73814</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="1"/>
-        <v>152803</v>
+        <v>149114</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="2"/>
-        <v>327928.44</v>
+        <v>317288</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -847,37 +847,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
-        <v>13103323.1951</v>
+        <v>12088122</v>
       </c>
       <c r="D10" s="4">
-        <v>13176160</v>
+        <v>11072970</v>
       </c>
       <c r="E10" s="4">
-        <v>321139.38991428528</v>
+        <v>289109</v>
       </c>
       <c r="F10" s="4">
-        <v>86599</v>
+        <v>65978</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="0"/>
-        <v>407738.38991428528</v>
+        <v>355087</v>
       </c>
       <c r="H10" s="3">
-        <v>80700</v>
+        <v>75300</v>
       </c>
       <c r="I10" s="3">
-        <v>73480</v>
+        <v>69297</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="1"/>
-        <v>154180</v>
+        <v>144597</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="2"/>
-        <v>253558.38991428528</v>
+        <v>210490</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -885,37 +885,37 @@
         <v>6</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>16630699.337014288</v>
+        <v>12242698</v>
       </c>
       <c r="D11" s="4">
-        <v>14108990</v>
+        <v>10786630</v>
       </c>
       <c r="E11" s="4">
-        <v>342979.17258571379</v>
+        <v>286843</v>
       </c>
       <c r="F11" s="4">
-        <v>199869</v>
+        <v>172395</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="0"/>
-        <v>542848.17258571379</v>
+        <v>459238</v>
       </c>
       <c r="H11" s="3">
-        <v>80700</v>
+        <v>75300</v>
       </c>
       <c r="I11" s="3">
-        <v>80522</v>
+        <v>73940</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="1"/>
-        <v>161222</v>
+        <v>149240</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="2"/>
-        <v>381626.17258571379</v>
+        <v>309998</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -923,37 +923,37 @@
         <v>7</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4">
-        <v>10149461.365</v>
+        <v>12292223</v>
       </c>
       <c r="D12" s="4">
-        <v>13468005</v>
+        <v>12076640</v>
       </c>
       <c r="E12" s="4">
-        <v>305231.82099999994</v>
+        <v>316406</v>
       </c>
       <c r="F12" s="4">
-        <v>61746</v>
+        <v>58311</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="0"/>
-        <v>366977.82099999994</v>
+        <v>374717</v>
       </c>
       <c r="H12" s="3">
-        <v>70600</v>
+        <v>75300</v>
       </c>
       <c r="I12" s="3">
-        <v>147444</v>
+        <v>67239</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="1"/>
-        <v>218044</v>
+        <v>142539</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="2"/>
-        <v>148933.82099999994</v>
+        <v>232178</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
@@ -961,37 +961,37 @@
         <v>8</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4">
-        <v>11290644.751985716</v>
+        <v>9703890</v>
       </c>
       <c r="D13" s="4">
-        <v>10838070</v>
+        <v>10761680</v>
       </c>
       <c r="E13" s="4">
-        <v>258643.4563142854</v>
+        <v>283534</v>
       </c>
       <c r="F13" s="4">
-        <v>65369</v>
+        <v>48054</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="0"/>
-        <v>324012.4563142854</v>
+        <v>331588</v>
       </c>
       <c r="H13" s="3">
-        <v>75600</v>
+        <v>68800</v>
       </c>
       <c r="I13" s="3">
-        <v>66027</v>
+        <v>62335</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="1"/>
-        <v>141627</v>
+        <v>131135</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="2"/>
-        <v>182385.4563142854</v>
+        <v>200453</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
@@ -999,37 +999,37 @@
         <v>9</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4">
-        <v>12083884.218499999</v>
+        <v>11703100</v>
       </c>
       <c r="D14" s="4">
-        <v>12081660</v>
+        <v>9011250</v>
       </c>
       <c r="E14" s="4">
-        <v>292705.08680000005</v>
+        <v>238371</v>
       </c>
       <c r="F14" s="4">
-        <v>152641</v>
+        <v>154027</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" si="0"/>
-        <v>445346.08680000005</v>
+        <v>392398</v>
       </c>
       <c r="H14" s="3">
-        <v>75600</v>
+        <v>70800</v>
       </c>
       <c r="I14" s="3">
-        <v>65235</v>
+        <v>69495</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="1"/>
-        <v>140835</v>
+        <v>140295</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="2"/>
-        <v>304511.08680000005</v>
+        <v>252103</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
@@ -1037,37 +1037,37 @@
         <v>10</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4">
-        <v>9046825.3500000015</v>
+        <v>11740626</v>
       </c>
       <c r="D15" s="4">
-        <v>7235245</v>
+        <v>13218020</v>
       </c>
       <c r="E15" s="4">
-        <v>175065.27500000008</v>
+        <v>342072</v>
       </c>
       <c r="F15" s="4">
-        <v>32765</v>
+        <v>46277</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="0"/>
-        <v>207830.27500000008</v>
+        <v>388349</v>
       </c>
       <c r="H15" s="3">
-        <v>75100</v>
+        <v>109700</v>
       </c>
       <c r="I15" s="3">
-        <v>58354</v>
+        <v>75990</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="1"/>
-        <v>133454</v>
+        <v>185690</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="2"/>
-        <v>74376.275000000081</v>
+        <v>202659</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
@@ -1078,34 +1078,34 @@
         <v>25</v>
       </c>
       <c r="C16" s="9">
-        <v>9847481.7844999991</v>
+        <v>11397594</v>
       </c>
       <c r="D16" s="9">
-        <v>10756818.775</v>
+        <v>16079210</v>
       </c>
       <c r="E16" s="9">
-        <v>273090.1750000001</v>
+        <v>429388</v>
       </c>
       <c r="F16" s="9">
-        <v>58653</v>
+        <v>66020</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" si="0"/>
-        <v>331743.1750000001</v>
+        <v>495408</v>
       </c>
       <c r="H16" s="3">
-        <v>112800</v>
+        <v>72000</v>
       </c>
       <c r="I16" s="3">
-        <v>57454</v>
+        <v>70659</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="1"/>
-        <v>170254</v>
+        <v>142659</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="2"/>
-        <v>161489.1750000001</v>
+        <v>352749</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -1116,34 +1116,34 @@
         <v>26</v>
       </c>
       <c r="C17" s="9">
-        <v>16809169.768299997</v>
+        <v>15733977</v>
       </c>
       <c r="D17" s="9">
-        <v>12131050</v>
+        <v>10705570</v>
       </c>
       <c r="E17" s="4">
-        <v>300579.35170000012</v>
+        <v>287307</v>
       </c>
       <c r="F17" s="4">
-        <v>160000</v>
+        <v>191583</v>
       </c>
       <c r="G17" s="17">
         <f t="shared" si="0"/>
-        <v>460579.35170000012</v>
+        <v>478890</v>
       </c>
       <c r="H17" s="3">
-        <v>75300</v>
+        <v>71900</v>
       </c>
       <c r="I17" s="3">
-        <v>61737</v>
+        <v>51910</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="1"/>
-        <v>137037</v>
+        <v>123810</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="2"/>
-        <v>323542.35170000012</v>
+        <v>355080</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -1152,49 +1152,48 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="14">
-        <f>SUM(C6:C17)</f>
-        <v>164417674.82539999</v>
+        <f t="shared" ref="C18:K18" si="3">SUM(C6:C17)</f>
+        <v>152781657</v>
       </c>
       <c r="D18" s="14">
-        <f>SUM(D6:D17)</f>
-        <v>157592518.77500001</v>
+        <f t="shared" si="3"/>
+        <v>155895535</v>
       </c>
       <c r="E18" s="14">
-        <f>SUM(E6:E17)</f>
-        <v>3853237.8933142847</v>
+        <f t="shared" si="3"/>
+        <v>4043708.2814285713</v>
       </c>
       <c r="F18" s="14">
-        <f>SUM(F6:F17)</f>
-        <v>1300265</v>
+        <f t="shared" si="3"/>
+        <v>1167221</v>
       </c>
       <c r="G18" s="18">
-        <f>SUM(G6:G17)</f>
-        <v>5153502.8933142852</v>
+        <f t="shared" si="3"/>
+        <v>5210929.2814285718</v>
       </c>
       <c r="H18" s="6">
-        <f>SUM(H6:H17)</f>
-        <v>927950</v>
+        <f t="shared" si="3"/>
+        <v>948550</v>
       </c>
       <c r="I18" s="6">
-        <f>SUM(I6:I17)</f>
-        <v>867654</v>
+        <f t="shared" si="3"/>
+        <v>817304</v>
       </c>
       <c r="J18" s="19">
-        <f>SUM(J6:J17)</f>
-        <v>1795604</v>
+        <f t="shared" si="3"/>
+        <v>1765854</v>
       </c>
       <c r="K18" s="13">
-        <f>SUM(K6:K17)</f>
-        <v>3357898.8933142847</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>3445075.2814285713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
-        <v>273090.1750000001</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
